--- a/pred_ohlcv/54_21/2020-01-15 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ARN ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-16178.1247</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-16116.5247</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-16119.5247</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-16122.5247</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-16154.5247</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-16085.5247</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-16178.5247</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-16199.5247</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-16938.0549</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-16935.0549</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-16635.0549</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16638.0549</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16638.0549</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16752.3711</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-16916.1665</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-16922.1665</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-16919.1665</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-16919.1665</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-16922.1665</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-16919.1665</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-16916.1665</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-16895.1665</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-16874.1993</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-16995.7085</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-16995.7085</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-17025.7085</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-17028.7085</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-17128.7085</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-17040.9501</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-17137.9501</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-17356.7001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-17356.7001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-17423.7001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-9436.949699999997</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-9877.599299999998</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-10522.5993</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-10513.5993</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-10513.5993</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-10644.87710733</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-10644.87710733</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-10644.87710733</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-10593.37930733</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-10492.08640733</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-14708.03430733</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-14705.03430733</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-13855.72830732999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-13855.72830732999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-14059.10620732999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-14972.17860732999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-14983.80840732999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12104.85060732999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-12094.85060732999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-12094.85060732999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-12170.27580732999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-13271.38750663999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-13261.38750663999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-13261.38750663999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-13261.38750663999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-13269.38750663999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-13278.38750663999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-13281.38750663999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-13296.38750663999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-13311.38750663999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-13423.60520663999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-18055.66160663999</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-62240.26910663996</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-62366.56940663996</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-63001.09450663996</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-61713.09450663996</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-61710.09450663996</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-65678.69520663995</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-66601.76590663995</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-54121.12427738995</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-53983.08967738995</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-53995.08967738995</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-53848.51107738995</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-54370.70287738995</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-54391.70287738995</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-104748.50107739</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-100985.12597739</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-101134.17357739</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-101250.42168313</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-108461.70788313</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-108212.59938313</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-109309.48038313</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-109322.32968313</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-156278.8709831299</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-199900.20500983</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-199906.20500983</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-200785.43500983</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-200812.2602105699</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-200755.5426105699</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-200751.5426105699</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-199543.75051057</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-200101.48541057</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-200543.62081057</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-200074.62081057</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-184405.16871117</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-199233.75791117</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-200740.17021117</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-200737.07021117</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-200964.6130111699</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-200742.53971117</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-201252.95931117</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-202437.4133111699</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-205602.7164111699</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-205598.7164111699</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-206784.1704111699</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-206775.1704111699</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-206778.2137111699</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-199754.8088111699</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-199751.7188111699</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-199562.4106111699</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-200641.9616111699</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-200280.7559111699</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-200536.6648111699</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-203565.7357111699</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-204479.7357111699</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-204478.5299111699</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-198058.4732111699</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-196660.5063111699</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ARN ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-16119.5247</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16638.0549</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16638.0549</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16752.3711</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-16916.1665</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-16922.1665</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-16919.1665</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-16922.1665</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-16919.1665</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-16916.1665</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-16895.1665</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-16874.1993</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-16995.7085</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-16995.7085</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-17025.7085</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-17028.7085</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-17128.7085</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-17040.9501</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-17356.7001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-17423.7001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-17423.7001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-9877.599299999998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-10522.5993</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-10513.5993</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-10644.87710733</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-14059.10620732999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-12210.64070732999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-12104.85060732999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12104.85060732999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-12094.85060732999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-12094.85060732999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-12170.27580732999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-13271.38750663999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-13261.38750663999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-13261.38750663999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-13261.38750663999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-13269.38750663999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-13278.38750663999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-13281.38750663999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-13296.38750663999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-13311.38750663999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-13423.60520663999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-62240.26910663996</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-62366.56940663996</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-63001.09450663996</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-61713.09450663996</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-61710.09450663996</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-65678.69520663995</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-66601.76590663995</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-54121.12427738995</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-53983.08967738995</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-53995.08967738995</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-53848.51107738995</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-54370.70287738995</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-54391.70287738995</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-104748.50107739</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-100985.12597739</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-101134.17357739</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-101250.42168313</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-108461.70788313</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-108212.59938313</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-109309.48038313</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-109322.32968313</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-200812.2602105699</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-200755.5426105699</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-200751.5426105699</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-200101.48541057</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-200543.62081057</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-200074.62081057</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-184405.16871117</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-199233.75791117</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-199360.78071117</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-200740.17021117</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-200737.07021117</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-200967.71301117</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-200964.6130111699</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-201514.6130111699</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-200742.53971117</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-200754.53971117</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-201252.95931117</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-202437.4133111699</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-205602.7164111699</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-205598.7164111699</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-206784.1704111699</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-206778.2137111699</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-206778.2137111699</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-199754.8088111699</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-199754.8088111699</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-199751.7188111699</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-200143.4106111699</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-200130.4106111699</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-199562.4106111699</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-199562.4106111699</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-199562.4106111699</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-200641.9616111699</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-200280.7559111699</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-200536.6648111699</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-203565.7357111699</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-204479.7357111699</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-204478.5299111699</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-198058.4732111699</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-196660.5063111699</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
